--- a/sofaaudit/Cable.xlsx
+++ b/sofaaudit/Cable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cable" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,12 +169,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -262,7 +256,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,7 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -650,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -784,7 +778,7 @@
         <v>9.9</v>
       </c>
       <c r="J2" s="21">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="25">
@@ -814,7 +808,7 @@
       </c>
       <c r="U2" s="1">
         <f>S2*J2</f>
-        <v>11.968109999999999</v>
+        <v>11968.109999999999</v>
       </c>
       <c r="V2" s="1">
         <v>2.2999999999999998</v>
@@ -1799,7 +1793,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
